--- a/UFR.xlsx
+++ b/UFR.xlsx
@@ -1563,7 +1563,7 @@
       </c>
       <c s="4" t="inlineStr" r="J67">
         <is>
-          <t xml:space="preserve">1819</t>
+          <t xml:space="preserve">1834</t>
         </is>
       </c>
       <c s="6" t="str" r="K67"/>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c s="10" r="I69">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c s="4" t="str" r="J69"/>
       <c s="6" t="str" r="K69"/>
